--- a/баг-репорт тестовое задание Склад15.xlsx
+++ b/баг-репорт тестовое задание Склад15.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -42,6 +42,36 @@
   </si>
   <si>
     <t>Окружение</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Склад15 Демо v 1.6.1.5492            Microsoft Excel 2016 </t>
+  </si>
+  <si>
+    <t>SK15-1</t>
+  </si>
+  <si>
+    <t>Файл инвентаризации не корректно экспортируется от ТСД</t>
+  </si>
+  <si>
+    <t>1. Открыть на мобильном устройстве приложение Склад 15. 2. Открыть меню инвентаризации. 3. Нажать на кнопку "+". 4. Нажать кнопку "Скан". 5. Отсканировать штрих-код товара  Кроссовки "Reebok". 6. Ввести количество 1. 7.Нажать кнопку "Далее" 8. Выйти в основное меню инвентаризации нажав на "Стрелку". 9 Нажать на кнопку "Выйти", выбрать "Завершить". 10. Открыть десктопное приложение Склад 15. 11. Во вкладке "Начало" нажать "Открыть утилиту Excel и csv обмена". 12 В открывшейся утилите нажать кнопку "С сервера". 13. Нажать кнопку "Папки", выбрать "С мобильного устройства". 14. Открыть файл инвентаризации.</t>
+  </si>
+  <si>
+    <t>SK15-2</t>
+  </si>
+  <si>
+    <t>Выбранный склад не сохраняется при временном выходе</t>
+  </si>
+  <si>
+    <t>1. Открыть на мобильном устройстве приложение Склад 15. 2. Открыть меню инвентаризации. 3. Нажать на кнопку "+". 4. Нажать кнопку "Склад". 5. Нажать "Сбросить текущее". Нажать "Выйти", выбрать "Временно выйти". 6. Открыть вкладку "Инвентаризация". 7. Открыть созданный документ.</t>
+  </si>
+  <si>
+    <t>При выборе склада в созданном документе на мобильном устройстве не сохраняется состояни склада "Не выбран". В созданном документе на компьютере проблемы нет.</t>
+  </si>
+  <si>
+    <t>Склад15 Демо v 1.6.1.5492                          OS Android 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Файл в формете xls не корректно отправляется с мобильного устройства в базу данных. Нет количества посчитанного, нет количества факт, нет суммы расхождений, склада. </t>
   </si>
 </sst>
 </file>
@@ -195,6 +225,167 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7182852</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1438476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9658350" y="209550"/>
+          <a:ext cx="7182852" cy="1438476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="AutoShape 1" descr="Screenshot_20240717-132542.jpg"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9658350" y="4048125"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4876800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>4533899</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9705975" y="4095749"/>
+          <a:ext cx="4829175" cy="8848725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>5001913</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>8954197</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>4505326</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14660263" y="4067175"/>
+          <a:ext cx="3952284" cy="8848726"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -463,7 +654,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,21 +686,40 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="317.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="1"/>
+    <row r="2" spans="1:6" ht="302.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" ht="343.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="10"/>
+      <c r="A3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="360.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
@@ -746,5 +956,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>